--- a/biology/Zoologie/Eotragus_artenensis/Eotragus_artenensis.xlsx
+++ b/biology/Zoologie/Eotragus_artenensis/Eotragus_artenensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eotragus artenensis est une espèce éteinte de mammifères de la famille des Bovidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Eotragus artenensis a été décrite en 1968 par les paléontologues français Léonard Ginsburg (1927-2009) et Émile Heintz (d) (1931-)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Eotragus artenensis a été décrite en 1968 par les paléontologues français Léonard Ginsburg (1927-2009) et Émile Heintz (d) (1931-).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, composée de arten et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte, les sables burdigaliens d'Artenay (France, département du Loiret)[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, composée de arten et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte, les sables burdigaliens d'Artenay (France, département du Loiret). 
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Leonard Ginsburg et Émile Heintz, « La plus ancienne Antilope d'Europe, Eotragus artenensis du Burdigalien d'Artenay », Bulletin du Muséum national d'histoire naturelle, Paris, IN  Groupe, vol. 40, no 4,‎ 31 janvier 1969, p. 837-842 (ISSN 1148-8425 et 2420-1901, OCLC 801819388, BNF 34428233, lire en ligne)</t>
         </is>
